--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namiac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unifjjesus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA978160-05B8-4580-A54C-FCD4C4888C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041D2AB-9A10-4080-A8EF-EF1448F4B588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2FF137DD-06D0-40B1-9607-6BC023076BE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{2FF137DD-06D0-40B1-9607-6BC023076BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
   <si>
     <t>Especificação</t>
   </si>
@@ -373,24 +373,15 @@
     <t>Usuário e B3</t>
   </si>
   <si>
-    <t>UC-19: Desenvolver sugestões</t>
-  </si>
-  <si>
     <t>Desenvolver sugestões de ações</t>
   </si>
   <si>
-    <t>UC-20: Alertar por e-mail</t>
-  </si>
-  <si>
     <t>Alertar o usuário por e-mail</t>
   </si>
   <si>
     <t>Receber alerta</t>
   </si>
   <si>
-    <t>UC-21: Criar guia do iniciante</t>
-  </si>
-  <si>
     <t>Criar um guia para iniciantes</t>
   </si>
   <si>
@@ -404,9 +395,6 @@
   </si>
   <si>
     <t>Apresentar informações importantes sobre a ação desejada</t>
-  </si>
-  <si>
-    <t>UC-23: Apresentar a data e hora do último login</t>
   </si>
   <si>
     <t>Apresentar a data e hora do último login</t>
@@ -552,15 +540,61 @@
 4. Sistema dá a opção de ler o guia de iniciante.
 5. Usuário clica para ler o guia.</t>
   </si>
+  <si>
+    <t>1. Usuário clica na área da carteira.
+2. Sistema leva usuário a página.
+3. Sistema mostra na página susgestões de ações para compra.</t>
+  </si>
+  <si>
+    <t>3e1.1. Sistema não consegue criar susgestões.
+3e1.2. Sistema mostra mensagem "Não foi possível criar sugestões, tente novamente mais tarde"</t>
+  </si>
+  <si>
+    <t>1.Sistema recebe um alerta.
+2.Sistem cria um cria E-mail sobre alerta para o usuário
+3.Sistema envia o E-mail para o usuário.</t>
+  </si>
+  <si>
+    <t>5e1.1. Usuário clica em opção "Não quero ler o guia".
+5e1.2.Sistema fecha a aba do guia.</t>
+  </si>
+  <si>
+    <t>1. Usuário clica na aréa de vizualização da atividade da conta.
+2. Sistema busca última data e hora em que se efetuou o login.
+3. Sistema mostra a data e hora recebido na busca.</t>
+  </si>
+  <si>
+    <t>2e1.1. Sistema não consegue buscar data e hora.
+2e1.2. Sistema apresenta mensagem "Não foi encontrada ultima data e hora de login, tente novamente mais tarde".</t>
+  </si>
+  <si>
+    <t>UC-11: Desenvolver sugestões</t>
+  </si>
+  <si>
+    <t>UC-12: Alertar por e-mail</t>
+  </si>
+  <si>
+    <t>UC-13: Criar guia do iniciante</t>
+  </si>
+  <si>
+    <t>UC-14: Apresentar a data e hora do último login</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,6 +655,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,17 +975,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2CDBA-9BD9-4972-99C8-F5447F184EF8}">
   <dimension ref="B2:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222:C230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -963,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -971,20 +1009,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -992,28 +1030,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1037,15 +1075,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1061,31 +1099,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,15 +1147,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1133,25 +1171,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -1199,28 +1237,28 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1290,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -1268,28 +1306,28 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" ht="180" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
@@ -1297,15 +1335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>9</v>
       </c>
@@ -1337,29 +1375,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>9</v>
       </c>
@@ -1407,25 +1445,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
@@ -1465,31 +1503,31 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>9</v>
       </c>
@@ -1537,28 +1575,28 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>0</v>
       </c>
@@ -1566,15 +1604,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1628,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>9</v>
       </c>
@@ -1606,29 +1644,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>4</v>
       </c>
@@ -1652,7 +1690,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>9</v>
       </c>
@@ -1676,29 +1714,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>8</v>
       </c>
@@ -1738,31 +1776,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>0</v>
       </c>
@@ -1770,15 +1808,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>8</v>
       </c>
@@ -1802,31 +1840,31 @@
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
@@ -1866,31 +1904,31 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="3"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +1944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>4</v>
       </c>
@@ -1914,15 +1952,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>9</v>
       </c>
@@ -1938,25 +1976,25 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="3"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +2010,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +2018,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>8</v>
       </c>
@@ -1996,34 +2034,34 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>12</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>3</v>
       </c>
@@ -2039,7 +2077,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>4</v>
       </c>
@@ -2047,15 +2085,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>8</v>
       </c>
@@ -2063,34 +2101,34 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>8</v>
       </c>
@@ -2130,31 +2168,31 @@
         <v>98</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>0</v>
       </c>
@@ -2162,31 +2200,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>8</v>
       </c>
@@ -2194,28 +2232,34 @@
         <v>98</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C188" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C190" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>0</v>
       </c>
@@ -2223,28 +2267,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>8</v>
       </c>
@@ -2252,30 +2296,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C198" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>0</v>
       </c>
@@ -2283,126 +2330,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>11</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B212" t="s">
+      <c r="C210" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B213" t="s">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C213" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B214" t="s">
+      <c r="C213" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C214" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B215" t="s">
+      <c r="C214" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B216" t="s">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B217" t="s">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B218" t="s">
+      <c r="C217" s="9"/>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B219" t="s">
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B220" t="s">
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C220" s="8"/>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>0</v>
       </c>
@@ -2410,23 +2463,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>6</v>
       </c>
@@ -2434,33 +2487,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>9</v>
       </c>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C228" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>13</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2477,13 +2536,13 @@
       <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2491,7 +2550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2499,7 +2558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -2507,7 +2566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2515,7 +2574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2531,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2547,7 +2606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2555,7 +2614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2563,7 +2622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2571,7 +2630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2579,7 +2638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +2646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2595,7 +2654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2603,7 +2662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2611,7 +2670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2619,7 +2678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2627,7 +2686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2635,7 +2694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2643,7 +2702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2659,7 +2718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2667,7 +2726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
